--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>94.73967398981497</v>
       </c>
       <c r="C2">
-        <v>131</v>
+        <v>130.5725205260365</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>148.3532478954353</v>
       </c>
       <c r="E2">
-        <v>153</v>
+        <v>152.5655404845378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>115.8526779330273</v>
       </c>
       <c r="C3">
-        <v>157</v>
+        <v>156.8049429565898</v>
       </c>
       <c r="D3">
-        <v>176</v>
+        <v>175.3102001278824</v>
       </c>
       <c r="E3">
-        <v>182</v>
+        <v>181.2896197755404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>117</v>
+        <v>116.8445518566937</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>157.7018885027459</v>
       </c>
       <c r="D4">
-        <v>176</v>
+        <v>175.2974291660801</v>
       </c>
       <c r="E4">
-        <v>182</v>
+        <v>180.9409395364281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>92.98295278191156</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>116.6419887944614</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>123.4614096019962</v>
       </c>
       <c r="E5">
-        <v>128</v>
+        <v>127.3609302410908</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>80.73943360570159</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>102.1626600216092</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>109.3217471349291</v>
       </c>
       <c r="E6">
-        <v>112</v>
+        <v>111.4236309222504</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>9.333911543418484</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>11.23422062765218</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11.78526578965354</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>11.8391811533395</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>207</v>
+        <v>205.1106828654895</v>
       </c>
       <c r="C8">
-        <v>383</v>
+        <v>378.8514805626896</v>
       </c>
       <c r="D8">
-        <v>494</v>
+        <v>489.5722118061616</v>
       </c>
       <c r="E8">
-        <v>587</v>
+        <v>583.5252692555785</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>108.8989953560731</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>140.3493981218891</v>
       </c>
       <c r="D9">
-        <v>154</v>
+        <v>153.5434512669169</v>
       </c>
       <c r="E9">
-        <v>159</v>
+        <v>158.3777453323874</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51.8584832674242</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>63.38079649864315</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>67.99010038631985</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>67.62793519753488</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9.584581920080701</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>11.08494337666994</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>11.74222911804124</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>12.60110022955488</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>23.83717678683425</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>29.85737786738835</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>31.42426284019058</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>30.75470296023732</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>29.13133318340149</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>35.31214364868075</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>38.24731927604619</v>
       </c>
       <c r="E13">
-        <v>39</v>
+        <v>38.4931219212982</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>94.73967398981497</v>
+        <v>100.9783491817628</v>
       </c>
       <c r="C2">
-        <v>130.5725205260365</v>
+        <v>135.4560813388034</v>
       </c>
       <c r="D2">
-        <v>148.3532478954353</v>
+        <v>151.1422510487182</v>
       </c>
       <c r="E2">
-        <v>152.5655404845378</v>
+        <v>154.5177559345036</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>115.8526779330273</v>
+        <v>123.5842855201298</v>
       </c>
       <c r="C3">
-        <v>156.8049429565898</v>
+        <v>162.7249581578534</v>
       </c>
       <c r="D3">
-        <v>175.3102001278824</v>
+        <v>178.6129849689628</v>
       </c>
       <c r="E3">
-        <v>181.2896197755404</v>
+        <v>183.6099480267958</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>116.8445518566937</v>
+        <v>124.1497658991431</v>
       </c>
       <c r="C4">
-        <v>157.7018885027459</v>
+        <v>163.4286255781191</v>
       </c>
       <c r="D4">
-        <v>175.2974291660801</v>
+        <v>178.5603470830609</v>
       </c>
       <c r="E4">
-        <v>180.9409395364281</v>
+        <v>183.2495897909949</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>92.98295278191156</v>
+        <v>99.32408398615753</v>
       </c>
       <c r="C5">
-        <v>116.6419887944614</v>
+        <v>121.0823238774124</v>
       </c>
       <c r="D5">
-        <v>123.4614096019962</v>
+        <v>125.7917890917096</v>
       </c>
       <c r="E5">
-        <v>127.3609302410908</v>
+        <v>128.9923023518884</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>80.73943360570159</v>
+        <v>86.19538314603743</v>
       </c>
       <c r="C6">
-        <v>102.1626600216092</v>
+        <v>106.0356497729024</v>
       </c>
       <c r="D6">
-        <v>109.3217471349291</v>
+        <v>111.382216681319</v>
       </c>
       <c r="E6">
-        <v>111.4236309222504</v>
+        <v>112.8501361708423</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.333911543418484</v>
+        <v>9.962475285044091</v>
       </c>
       <c r="C7">
-        <v>11.23422062765218</v>
+        <v>11.6592721000854</v>
       </c>
       <c r="D7">
-        <v>11.78526578965354</v>
+        <v>12.00761230885085</v>
       </c>
       <c r="E7">
-        <v>11.8391811533395</v>
+        <v>11.99095024139929</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>205.1106828654895</v>
+        <v>218.551758958026</v>
       </c>
       <c r="C8">
-        <v>378.8514805626896</v>
+        <v>393.0622647891806</v>
       </c>
       <c r="D8">
-        <v>489.5722118061616</v>
+        <v>498.8420785229688</v>
       </c>
       <c r="E8">
-        <v>583.5252692555785</v>
+        <v>590.9876762663656</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>108.8989953560731</v>
+        <v>116.2330519429543</v>
       </c>
       <c r="C9">
-        <v>140.3493981218891</v>
+        <v>145.6668159247763</v>
       </c>
       <c r="D9">
-        <v>153.5434512669169</v>
+        <v>156.4400948979797</v>
       </c>
       <c r="E9">
-        <v>158.3777453323874</v>
+        <v>160.4073832053651</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>51.8584832674242</v>
+        <v>55.30312867448148</v>
       </c>
       <c r="C10">
-        <v>63.38079649864315</v>
+        <v>65.76169805307622</v>
       </c>
       <c r="D10">
-        <v>67.99010038631985</v>
+        <v>69.27124029934959</v>
       </c>
       <c r="E10">
-        <v>67.62793519753488</v>
+        <v>68.49521374618028</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.584581920080701</v>
+        <v>10.21749790210974</v>
       </c>
       <c r="C11">
-        <v>11.08494337666994</v>
+        <v>11.50014217737278</v>
       </c>
       <c r="D11">
-        <v>11.74222911804124</v>
+        <v>11.96321789381961</v>
       </c>
       <c r="E11">
-        <v>12.60110022955488</v>
+        <v>12.76260879837906</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>23.83717678683425</v>
+        <v>25.43048401039587</v>
       </c>
       <c r="C12">
-        <v>29.85737786738835</v>
+        <v>30.98221688994789</v>
       </c>
       <c r="D12">
-        <v>31.42426284019058</v>
+        <v>32.0177261213151</v>
       </c>
       <c r="E12">
-        <v>30.75470296023732</v>
+        <v>31.14953398634933</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>29.13133318340149</v>
+        <v>31.06973549375791</v>
       </c>
       <c r="C13">
-        <v>35.31214364868075</v>
+        <v>36.63995134046976</v>
       </c>
       <c r="D13">
-        <v>38.24731927604619</v>
+        <v>38.96844108194558</v>
       </c>
       <c r="E13">
-        <v>38.4931219212982</v>
+        <v>38.98690148093603</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto.xlsx
@@ -408,7 +408,7 @@
         <v>123.5842855201298</v>
       </c>
       <c r="C3">
-        <v>162.7249581578534</v>
+        <v>162.7249581578535</v>
       </c>
       <c r="D3">
         <v>178.6129849689628</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.962475285044091</v>
+        <v>9.962475285044093</v>
       </c>
       <c r="C7">
         <v>11.6592721000854</v>
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>218.551758958026</v>
+        <v>218.5517589580259</v>
       </c>
       <c r="C8">
-        <v>393.0622647891806</v>
+        <v>393.0622647891807</v>
       </c>
       <c r="D8">
         <v>498.8420785229688</v>
@@ -527,7 +527,7 @@
         <v>55.30312867448148</v>
       </c>
       <c r="C10">
-        <v>65.76169805307622</v>
+        <v>65.76169805307623</v>
       </c>
       <c r="D10">
         <v>69.27124029934959</v>
@@ -561,10 +561,10 @@
         <v>25.43048401039587</v>
       </c>
       <c r="C12">
-        <v>30.98221688994789</v>
+        <v>30.9822168899479</v>
       </c>
       <c r="D12">
-        <v>32.0177261213151</v>
+        <v>32.01772612131509</v>
       </c>
       <c r="E12">
         <v>31.14953398634933</v>
